--- a/IMS/App_Data/DepartmentIndicatorStandardValue.xlsx
+++ b/IMS/App_Data/DepartmentIndicatorStandardValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>肾病风湿病科</t>
   </si>
@@ -129,7 +129,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目1</t>
+    <t>值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,23 +515,26 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -545,177 +552,177 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
@@ -723,5 +730,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>